--- a/scripts/2022/2022_04_11_longmengen_gas_MtM/Book2.xlsx
+++ b/scripts/2022/2022_04_11_longmengen_gas_MtM/Book2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruud.wijtvliet\Ruud\Python\dev\lichtblyck\scripts\2022\2022_04_11_longmengen_gas_MtM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68ECB83E-4161-4DA7-8916-91DA3B034E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3762EA-AAB3-4678-A3AD-6E533CAF79F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="-110" windowWidth="36620" windowHeight="21820" xr2:uid="{6E55DC50-DBB0-44B1-8A2E-E5AED484AF56}"/>
+    <workbookView xWindow="5040" yWindow="3040" windowWidth="27300" windowHeight="15950" xr2:uid="{6E55DC50-DBB0-44B1-8A2E-E5AED484AF56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>q</t>
   </si>
@@ -61,9 +61,6 @@
     <t>B2B_RLM</t>
   </si>
   <si>
-    <t>B2C_NEW</t>
-  </si>
-  <si>
     <t>B2B_CONTI</t>
   </si>
   <si>
@@ -76,22 +73,10 @@
     <t>B2C Legacy</t>
   </si>
   <si>
-    <t>B2B Contingent**</t>
-  </si>
-  <si>
-    <t>B2C New Tariffs**</t>
-  </si>
-  <si>
-    <t>B2B Back-to-Back + RLM</t>
-  </si>
-  <si>
-    <t>r now</t>
-  </si>
-  <si>
-    <t>r after pricedrop</t>
-  </si>
-  <si>
-    <t>delta r</t>
+    <t>B2B BtB + RLM</t>
+  </si>
+  <si>
+    <t>B2B Contingent</t>
   </si>
 </sst>
 </file>
@@ -99,14 +84,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="#,##0;\-#,##0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00%;\-#,##0.00%"/>
-    <numFmt numFmtId="167" formatCode="#,##0%;\-#,##0%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0000;\-#,##0.0000"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm;;"/>
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;;"/>
-    <numFmt numFmtId="171" formatCode="mmm\ yyyy;;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00%;\-#,##0.00%"/>
+    <numFmt numFmtId="165" formatCode="#,##0%;\-#,##0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000;\-#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ hh:mm;;"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;;"/>
+    <numFmt numFmtId="169" formatCode="mmm\ yyyy;;"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00;\-#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="#,##0;\-#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -145,6 +130,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
@@ -163,27 +154,15 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -508,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9481DE-E00B-4252-8A22-685475049965}">
-  <dimension ref="F17:N42"/>
+  <dimension ref="F17:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37:N38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -555,37 +534,37 @@
     <row r="19" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F19" s="1"/>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2">
-        <v>4268</v>
+        <v>3169.926999999991</v>
       </c>
       <c r="I19" s="2">
-        <v>538178</v>
+        <v>321704.24567137897</v>
       </c>
       <c r="J19" s="2">
-        <v>269089</v>
+        <v>160852.12283568949</v>
       </c>
       <c r="K19" s="2">
-        <v>-269089</v>
+        <v>-160852.12283568949</v>
       </c>
     </row>
     <row r="20" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F20" s="1"/>
       <c r="G20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H20" s="2">
-        <v>3141</v>
+        <v>20806.43365954102</v>
       </c>
       <c r="I20" s="2">
-        <v>335935</v>
+        <v>2074449.312635516</v>
       </c>
       <c r="J20" s="2">
-        <v>167967</v>
+        <v>1037224.656317758</v>
       </c>
       <c r="K20" s="2">
-        <v>-167967</v>
+        <v>-1037224.656317758</v>
       </c>
     </row>
     <row r="21" spans="6:11" x14ac:dyDescent="0.35">
@@ -594,90 +573,89 @@
         <v>7</v>
       </c>
       <c r="H21" s="2">
-        <v>997</v>
+        <v>194.37199999999811</v>
       </c>
       <c r="I21" s="2">
-        <v>103492</v>
+        <v>19626.9236253032</v>
       </c>
       <c r="J21" s="2">
-        <v>51746</v>
+        <v>9813.4618126516016</v>
       </c>
       <c r="K21" s="2">
-        <v>-51746</v>
+        <v>-9813.4618126516016</v>
       </c>
     </row>
     <row r="22" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F22" s="1"/>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2">
-        <v>19905</v>
+        <v>3976.8490000000288</v>
       </c>
       <c r="I22" s="2">
-        <v>2104582</v>
+        <v>487142.69228063809</v>
       </c>
       <c r="J22" s="2">
-        <v>1052291</v>
+        <v>243571.34614031899</v>
       </c>
       <c r="K22" s="2">
-        <v>-1052291</v>
+        <v>-243571.34614031899</v>
       </c>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F23" s="1"/>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" s="2">
-        <v>50403</v>
+        <f>SUM(H19:H22)</f>
+        <v>28147.58165954104</v>
       </c>
       <c r="I23" s="2">
-        <v>5290467</v>
+        <f>SUM(I19:I22)</f>
+        <v>2902923.1742128367</v>
       </c>
       <c r="J23" s="2">
-        <v>2645233</v>
+        <f>SUM(J19:J22)</f>
+        <v>1451461.5871064183</v>
       </c>
       <c r="K23" s="2">
-        <v>-2645233</v>
+        <f>SUM(K19:K22)</f>
+        <v>-1451461.5871064183</v>
       </c>
     </row>
     <row r="24" spans="6:11" x14ac:dyDescent="0.35">
       <c r="G24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H24" s="2">
-        <f>SUM(H19:H23)</f>
-        <v>78714</v>
+        <v>11204.989</v>
       </c>
       <c r="I24" s="2">
-        <f>SUM(I19:I23)</f>
-        <v>8372654</v>
+        <v>818279.5214614179</v>
       </c>
       <c r="J24" s="2">
-        <f>SUM(J19:J23)</f>
-        <v>4186326</v>
+        <v>409139.76073070889</v>
       </c>
       <c r="K24" s="2">
-        <f>SUM(K19:K23)</f>
-        <v>-4186326</v>
+        <v>-409139.76073070889</v>
       </c>
     </row>
     <row r="25" spans="6:11" x14ac:dyDescent="0.35">
       <c r="G25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H25" s="2">
-        <v>9477</v>
+        <v>54264.282125543963</v>
       </c>
       <c r="I25" s="2">
-        <v>721626</v>
+        <v>3981197.2149147242</v>
       </c>
       <c r="J25" s="2">
-        <v>360813</v>
+        <v>1990598.6074573621</v>
       </c>
       <c r="K25" s="2">
-        <v>-360813</v>
+        <v>-1990598.6074573621</v>
       </c>
     </row>
     <row r="26" spans="6:11" x14ac:dyDescent="0.35">
@@ -685,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="H26" s="2">
-        <v>2525</v>
+        <v>1244.154999999997</v>
       </c>
       <c r="I26" s="2">
-        <v>193057</v>
+        <v>89320.992492270845</v>
       </c>
       <c r="J26" s="2">
-        <v>96528</v>
+        <v>44660.496246135423</v>
       </c>
       <c r="K26" s="2">
-        <v>-96528</v>
+        <v>-44660.496246135423</v>
       </c>
     </row>
     <row r="27" spans="6:11" x14ac:dyDescent="0.35">
@@ -702,274 +680,170 @@
         <v>9</v>
       </c>
       <c r="H27" s="2">
-        <v>42014</v>
+        <f>SUM(H24:H26)</f>
+        <v>66713.426125543963</v>
       </c>
       <c r="I27" s="2">
-        <v>3268442</v>
+        <f>SUM(I24:I26)</f>
+        <v>4888797.7288684128</v>
       </c>
       <c r="J27" s="2">
-        <v>1634221</v>
+        <f>SUM(J24:J26)</f>
+        <v>2444398.8644342064</v>
       </c>
       <c r="K27" s="2">
-        <v>-1634221</v>
-      </c>
-    </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="G28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="2">
-        <v>83203</v>
-      </c>
-      <c r="I28" s="2">
-        <v>7620701</v>
-      </c>
-      <c r="J28" s="2">
-        <v>3810350</v>
-      </c>
-      <c r="K28" s="2">
-        <v>-3810350</v>
-      </c>
-    </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="2">
-        <f>SUM(H25:H28)</f>
-        <v>137219</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" ref="I29:K29" si="0">SUM(I25:I28)</f>
-        <v>11803826</v>
-      </c>
-      <c r="J29" s="2">
+        <f>SUM(K24:K26)</f>
+        <v>-2444398.8644342064</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="2">
+        <f>H22</f>
+        <v>3976.8490000000288</v>
+      </c>
+      <c r="I30" s="2">
+        <f>I22</f>
+        <v>487142.69228063809</v>
+      </c>
+      <c r="J30" s="2">
+        <f>J22</f>
+        <v>243571.34614031899</v>
+      </c>
+      <c r="K30" s="2">
+        <f>K22</f>
+        <v>-243571.34614031899</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2">
+        <f>H19+H21</f>
+        <v>3364.2989999999891</v>
+      </c>
+      <c r="I31" s="2">
+        <f>I19+I21</f>
+        <v>341331.16929668217</v>
+      </c>
+      <c r="J31" s="2">
+        <f>J19+J21</f>
+        <v>170665.58464834109</v>
+      </c>
+      <c r="K31" s="2">
+        <f>K19+K21</f>
+        <v>-170665.58464834109</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2">
+        <f>H22</f>
+        <v>3976.8490000000288</v>
+      </c>
+      <c r="I32" s="2">
+        <f>I22</f>
+        <v>487142.69228063809</v>
+      </c>
+      <c r="J32" s="2">
+        <f>J22</f>
+        <v>243571.34614031899</v>
+      </c>
+      <c r="K32" s="2">
+        <f>K22</f>
+        <v>-243571.34614031899</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G33" t="str">
+        <f>G23</f>
+        <v>Σ 2022 ROY</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" ref="H33:K33" si="0">H23</f>
+        <v>28147.58165954104</v>
+      </c>
+      <c r="I33" s="2">
         <f t="shared" si="0"/>
-        <v>5901912</v>
-      </c>
-      <c r="K29" s="2">
+        <v>2902923.1742128367</v>
+      </c>
+      <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>-5901912</v>
-      </c>
-    </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="H32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.35">
-      <c r="G33" t="s">
+        <v>1451461.5871064183</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="0"/>
+        <v>-1451461.5871064183</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="3">
-        <f>H19</f>
-        <v>4268</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" ref="I33:K33" si="1">I19</f>
-        <v>538178</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="H34" s="2">
+        <f>H26+H24</f>
+        <v>12449.143999999997</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" ref="I34:K34" si="1">I26+I24</f>
+        <v>907600.51395368879</v>
+      </c>
+      <c r="J34" s="2">
         <f t="shared" si="1"/>
-        <v>269089</v>
-      </c>
-      <c r="K33" s="3">
+        <v>453800.25697684434</v>
+      </c>
+      <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-269089</v>
-      </c>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.35">
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="3">
-        <f>H20+H21</f>
-        <v>4138</v>
-      </c>
-      <c r="I34" s="3">
-        <f t="shared" ref="I34:K34" si="2">I20+I21</f>
-        <v>439427</v>
-      </c>
-      <c r="J34" s="3">
+        <v>-453800.25697684434</v>
+      </c>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="2">
+        <f>H25</f>
+        <v>54264.282125543963</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" ref="I35:K35" si="2">I25</f>
+        <v>3981197.2149147242</v>
+      </c>
+      <c r="J35" s="2">
         <f t="shared" si="2"/>
-        <v>219713</v>
-      </c>
-      <c r="K34" s="3">
+        <v>1990598.6074573621</v>
+      </c>
+      <c r="K35" s="2">
         <f t="shared" si="2"/>
-        <v>-219713</v>
-      </c>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.35">
-      <c r="G35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="3">
-        <f>H23</f>
-        <v>50403</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" ref="I35:K35" si="3">I23</f>
-        <v>5290467</v>
-      </c>
-      <c r="J35" s="3">
+        <v>-1990598.6074573621</v>
+      </c>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G36" t="str">
+        <f>G27</f>
+        <v>Σ 2023-2025</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" ref="H36:K36" si="3">H27</f>
+        <v>66713.426125543963</v>
+      </c>
+      <c r="I36" s="2">
         <f t="shared" si="3"/>
-        <v>2645233</v>
-      </c>
-      <c r="K35" s="3">
+        <v>4888797.7288684128</v>
+      </c>
+      <c r="J36" s="2">
         <f t="shared" si="3"/>
-        <v>-2645233</v>
-      </c>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.35">
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="3">
-        <f>H22</f>
-        <v>19905</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" ref="I36:K36" si="4">I22</f>
-        <v>2104582</v>
-      </c>
-      <c r="J36" s="3">
-        <f t="shared" si="4"/>
-        <v>1052291</v>
-      </c>
-      <c r="K36" s="3">
-        <f t="shared" si="4"/>
-        <v>-1052291</v>
-      </c>
-    </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.35">
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="3">
-        <f>SUM(H33:H36)</f>
-        <v>78714</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" ref="I37:K37" si="5">SUM(I33:I36)</f>
-        <v>8372654</v>
-      </c>
-      <c r="J37" s="3">
-        <f t="shared" si="5"/>
-        <v>4186326</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" si="5"/>
-        <v>-4186326</v>
-      </c>
-      <c r="M37" s="4">
-        <v>4186326</v>
-      </c>
-      <c r="N37" s="4">
-        <v>-4186326</v>
-      </c>
-    </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.35">
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="3">
-        <f>H25+H26</f>
-        <v>12002</v>
-      </c>
-      <c r="I38" s="3">
-        <f t="shared" ref="I38:K38" si="6">I25+I26</f>
-        <v>914683</v>
-      </c>
-      <c r="J38" s="3">
-        <f t="shared" si="6"/>
-        <v>457341</v>
-      </c>
-      <c r="K38" s="3">
-        <f t="shared" si="6"/>
-        <v>-457341</v>
-      </c>
-      <c r="M38" s="4">
-        <v>5901912</v>
-      </c>
-      <c r="N38" s="4">
-        <v>-5901912</v>
-      </c>
-    </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.35">
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="3">
-        <f>H28</f>
-        <v>83203</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" ref="I39:K39" si="7">I28</f>
-        <v>7620701</v>
-      </c>
-      <c r="J39" s="3">
-        <f t="shared" si="7"/>
-        <v>3810350</v>
-      </c>
-      <c r="K39" s="3">
-        <f t="shared" si="7"/>
-        <v>-3810350</v>
-      </c>
-    </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.35">
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="3">
-        <f>H27</f>
-        <v>42014</v>
-      </c>
-      <c r="I40" s="3">
-        <f t="shared" ref="I40:K40" si="8">I27</f>
-        <v>3268442</v>
-      </c>
-      <c r="J40" s="3">
-        <f t="shared" si="8"/>
-        <v>1634221</v>
-      </c>
-      <c r="K40" s="3">
-        <f t="shared" si="8"/>
-        <v>-1634221</v>
-      </c>
-    </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.35">
-      <c r="G41" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="3">
-        <f>SUM(H38:H40)</f>
-        <v>137219</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" ref="I41:K41" si="9">SUM(I38:I40)</f>
-        <v>11803826</v>
-      </c>
-      <c r="J41" s="3">
-        <f t="shared" si="9"/>
-        <v>5901912</v>
-      </c>
-      <c r="K41" s="3">
-        <f t="shared" si="9"/>
-        <v>-5901912</v>
-      </c>
-    </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.35">
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
+        <v>2444398.8644342064</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="3"/>
+        <v>-2444398.8644342064</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
